--- a/outputs/batch_0_25_Jun_25_output.xlsx
+++ b/outputs/batch_0_25_Jun_25_output.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="727">
   <si>
     <t xml:space="preserve">input</t>
   </si>
@@ -582,14 +582,20 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Main apne YouTube channel par tech mein khawateen ko aik mawazne ki dawat deta hoon jahan woh apne safar ki baatein karein gi. Main un ke liye aik sawal nama tayyar karna chahta hoon, kaun se sawalat mein un se poochhoon taake un ke jawabaat nojawan larkiyon ko hosla dein ke woh tech mein apna rasta bana sakti hain.
+    <t xml:space="preserve">Main apne YouTube channel par tech mein khawateen ko aik mawazne ki dawat deta hoon jahan woh apne safar ki baatein karein gi. Main un ke liye aik sawal nama tayyar karna chahta hoon, kaun se sawalat mein un se poochhoon taake un ke jawabaat nojawan larkiyon ko hosla dein ke woh tech mein apna rasta bana sakti hain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 Yahan kuch sawalat diye gaye hain jo aap technology mein khawateen se pooch saktay hain taake nojawan larkiyon ko mehwu karein aur unhein targheeb dein ke woh technology ki field mein career banayein:
 1. Kya aap ko technology ki san'at mein aap ka safar mukhtasar tareeqay se bayan kar sakti hain, jis mein aap ne kisi mushkil ka samna kiya aur unhein kaise paar kiya?
 2. Technology ke shobay mein ibtidaai tor par aap ko kya kashish karta tha, aur aap ne is ke liye apne jazbay kaise daryaft kiya?
 3. Kya aap ke career ke safar mein koi mukhassas misaalen ya mentors rahe hain jinhnon ne aap ko apne technology ke safar mein rehnumai di, agar haan to woh kis tarah a</t>
   </si>
   <si>
-    <t xml:space="preserve">Ji, yaqini tor par, sheron par 10 jumle ye hain.
+    <t xml:space="preserve">Ji, yaqini tor par, sheron par 10 jumle ye hain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 1- Sher jangal ka badshah kehlata hai.
 2- Ye Felidae khandan ka rukan hai.
 3- Sher ki chhati gehri hoti hai.
@@ -876,7 +882,6 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">گھڑیال         </t>
     </r>
@@ -897,7 +902,6 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">گرگٹ           </t>
     </r>
@@ -918,7 +922,6 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">مگرمچھ         </t>
     </r>
@@ -939,7 +942,6 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">گھریلو چھپکلی  </t>
     </r>
@@ -960,7 +962,6 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">سنڈا           </t>
     </r>
@@ -981,7 +982,6 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">چھپکلی         </t>
     </r>
@@ -1002,7 +1002,6 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">سانپ           </t>
     </r>
@@ -1023,7 +1022,6 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">خشکی کا کچھوا  </t>
     </r>
@@ -1044,7 +1042,6 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">پانی کا کچھوا  </t>
     </r>
@@ -1374,9 +1371,27 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ؓ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ؓ </t>
+      <t xml:space="preserve">bin Rabah, walida ka naam Hamamah tha. Habshi nizaad ghulam the. Makkah mein hi paida hue the. In ke aaqa ka naam Jumah tha. Hazrat Bilal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ؒ </t>
     </r>
     <r>
       <rPr>
@@ -1386,7 +1401,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">bin Rabah, walida ka naam Hamamah tha. Habshi nizaad ghulam the. Makkah mein hi paida hue the. In ke aaqa ka naam Jumah tha. Hazrat Bilal</t>
+      <t xml:space="preserve">soorat mein to siyah the, magar Islam ne in ko Arabon ka sardar ban diya tha. In ka dil shuru se shafaf tha. In ko imaan us waqt naseeb hua, jab waadi Batha ki aksar gori makhlooq ghuroor aur husn ke zaum ki gumraahiyon thokrein kha rahi thi. Shuru mein jin buzurgon ne daai-e-haq Hazrat Muhammad </t>
     </r>
     <r>
       <rPr>
@@ -1394,8 +1409,26 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">صلی اﷲ علیہ وسلم </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">ko labbaik kaha tha un saat mein se aik Habshi ghulam Hazrat Bilal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">ؒ </t>
     </r>
     <r>
@@ -1406,7 +1439,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">soorat mein to siyah the, magar Islam ne in ko Arabon ka sardar ban diya tha. In ka dil shuru se shafaf tha. In ko imaan us waqt naseeb hua, jab waadi Batha ki aksar gori makhlooq ghuroor aur husn ke zaum ki gumraahiyon thokrein kha rahi thi. Shuru mein jin buzurgon ne daai-e-haq Hazrat Muhammad </t>
+      <t xml:space="preserve">the. Hazrat Bilal</t>
     </r>
     <r>
       <rPr>
@@ -1414,19 +1447,18 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ؒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">صلی اﷲ علیہ وسلم </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ko labbaik kaha tha un saat mein se aik Habshi ghulam Hazrat Bilal</t>
+      <t xml:space="preserve">ne Islam ke liye bohat hi museebatein bardaasht ki. Tapti rait par lita diya jata. Dehakte angaaron par litaaye jate. Mushrikeen ke shararti ladke Hazrat Bilal</t>
     </r>
     <r>
       <rPr>
@@ -1434,47 +1466,6 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ؒ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">the. Hazrat Bilal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ؒ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ne Islam ke liye bohat hi museebatein bardaasht ki. Tapti rait par lita diya jata. Dehakte angaaron par litaaye jate. Mushrikeen ke shararti ladke Hazrat Bilal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ؒ </t>
     </r>
@@ -1636,20 +1627,19 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">۔</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">۔</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">ji bilkul, Pakistan ke bohat saare logon ne is shoba mein bohat kaam kiya hai</t>
     </r>
     <r>
@@ -1658,7 +1648,6 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">۔ </t>
     </r>
@@ -1680,7 +1669,6 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">۔
 </t>
@@ -1702,7 +1690,6 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">۔
 </t>
@@ -1724,7 +1711,6 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">۔
 </t>
@@ -1745,7 +1731,6 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">۔</t>
     </r>
@@ -2069,7 +2054,6 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">مجموعة العشرين،، مجموعة من </t>
     </r>
@@ -2090,7 +2074,6 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">، </t>
     </r>
@@ -2111,18 +2094,17 @@
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">二十国集团，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">二十国集团，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">20</t>
     </r>
     <r>
@@ -2131,7 +2113,6 @@
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">国集团</t>
     </r>
@@ -3232,20 +3213,19 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">۔</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">۔</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">ji bilkul, Pakistan ke bohat saare logon ne is shoba mein bohat kaam kiya hai</t>
     </r>
     <r>
@@ -3254,7 +3234,6 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">۔ </t>
     </r>
@@ -3276,7 +3255,6 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">۔
 </t>
@@ -3298,7 +3276,6 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">۔
 </t>
@@ -3320,7 +3297,6 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">۔
 </t>
@@ -3341,7 +3317,6 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">۔</t>
     </r>
@@ -3988,9 +3963,27 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">وں </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">وں </t>
+      <t xml:space="preserve">ka urooj dekha. Teen sab se zyada qabil-e-zikr saltanat Delhi, Mughal saltanat aur Dakan ki saltanat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">یں </t>
     </r>
     <r>
       <rPr>
@@ -4000,7 +3993,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ka urooj dekha. Teen sab se zyada qabil-e-zikr saltanat Delhi, Mughal saltanat aur Dakan ki saltanat</t>
+      <t xml:space="preserve">theen. 13 wein sadi mein qaim Delhi saltanat ne Hindustan mein Muslim hukmarani ka aaghaz kiya. Is ke baad Mughal saltanat, Babur ne 1526 mein qaim ki, jo Janubi Asia ki sab se ahem aur paayedaar Muslim saltanat ban gayi. Dakan Salateen satah murtafa Dakan mein azaad Muslim riyasat</t>
     </r>
     <r>
       <rPr>
@@ -4008,27 +4001,6 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">یں </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">theen. 13 wein sadi mein qaim Delhi saltanat ne Hindustan mein Muslim hukmarani ka aaghaz kiya. Is ke baad Mughal saltanat, Babur ne 1526 mein qaim ki, jo Janubi Asia ki sab se ahem aur paayedaar Muslim saltanat ban gayi. Dakan Salateen satah murtafa Dakan mein azaad Muslim riyasat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">وں </t>
     </r>
@@ -4693,7 +4665,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4736,13 +4708,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Noto Sans Devanagari"/>
@@ -4751,14 +4716,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Noto Sans Devanagari"/>
+      <name val="Noto Sans CJK SC"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Noto Sans CJK SC"/>
+      <name val="Noto Sans Devanagari"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -4812,7 +4776,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4835,10 +4799,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -5043,11 +5003,11 @@
   </sheetPr>
   <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="45.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="68.72"/>
@@ -5234,8 +5194,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -5299,7 +5259,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -5387,7 +5347,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -5410,1302 +5370,1311 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="B46" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="B47" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="1" t="s">
-        <v>97</v>
+      <c r="A51" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="297" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="271.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="297" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="297" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="310.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="310.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="297" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="197" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="525.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="100.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="310.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="297" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="297" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="3" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6713,173 +6682,173 @@
         <v>79</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="3" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="297" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B265" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B267" s="3" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B270" s="3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B273" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B277" s="3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B279" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B280" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6887,1119 +6856,1119 @@
         <v>39</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B282" s="3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B283" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B286" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B291" s="3" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B293" s="3" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="3" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="3" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B299" s="3" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="3" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="3" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="3" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="3" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B309" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="3" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B311" s="3" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B313" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B315" s="3" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B317" s="3" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="3" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="297" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B321" s="3" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B322" s="3" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="3" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B325" s="3" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B331" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="3" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="3" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B337" s="3" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="364.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B339" s="3" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="197" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="3" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B343" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="3" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="367.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B345" s="8" t="s">
-        <v>515</v>
+      <c r="B345" s="7" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B347" s="3" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="3" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B352" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B353" s="3" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="3" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="3" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B357" s="3" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B358" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="3" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B366" s="3" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="3" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B369" s="3" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B372" s="3" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="3" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B374" s="3" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B375" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B376" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="3" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B379" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="3" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B382" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B384" s="3" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B388" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B389" s="3" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B390" s="3" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="3" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="310.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B392" s="3" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B394" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B395" s="3" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B396" s="3" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B397" s="3" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="3" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="3" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B403" s="3" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B404" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="3" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B406" s="3" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B409" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="310.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B410" s="3" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B411" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B412" s="3" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B413" s="3" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B415" s="1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B421" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B422" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B425" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B426" s="3" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B427" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B429" s="3" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B430" s="3" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B432" s="3" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B435" s="3" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="511.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B437" s="3" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B438" s="3" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B439" s="3" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B441" s="3" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B443" s="1" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B444" s="3" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B445" s="3" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B447" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B449" s="3" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B450" s="3" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B451" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="3" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B453" s="3" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B454" s="3" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="350.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B455" s="3" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B456" s="1" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8007,269 +7976,269 @@
         <v>43</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B458" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B459" s="3" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B460" s="3" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B461" s="3" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B462" s="3" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="323.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B463" s="3" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B464" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B465" s="3" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="350.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B466" s="3" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B471" s="3" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B472" s="3" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B473" s="3" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="3" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B477" s="3" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B479" s="3" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="310.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B482" s="3" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B483" s="3" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B484" s="3" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B485" s="3" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="297" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B486" s="3" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B487" s="3" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B488" s="3" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B489" s="3" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B490" s="3" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B491" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="431.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B494" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B495" s="3" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B496" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B497" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B498" s="3" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B499" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
   </sheetData>
